--- a/GenerateApp/tables_short_horiz/Data/3/source.xlsx
+++ b/GenerateApp/tables_short_horiz/Data/3/source.xlsx
@@ -11,6 +11,50 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>10.2010</t>
+  </si>
+  <si>
+    <t>11.2010</t>
+  </si>
+  <si>
+    <t>12.2010</t>
+  </si>
+  <si>
+    <t>01.2011</t>
+  </si>
+  <si>
+    <t>02.2011</t>
+  </si>
+  <si>
+    <t>03.2011</t>
+  </si>
+  <si>
+    <t>04.2011</t>
+  </si>
+  <si>
+    <t>05.2011</t>
+  </si>
+  <si>
+    <t>06.2011</t>
+  </si>
+  <si>
+    <t>07.2011</t>
+  </si>
+  <si>
+    <t>08.2011</t>
+  </si>
+  <si>
+    <t>09.2011</t>
+  </si>
+  <si>
+    <t>10.2011</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69,131 +113,101 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00FFFF"/>
+              <a:srgbClr val="000080"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$18</c:f>
+              <c:f>Sheet1!$A$1:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1992</c:v>
+                  <c:v>10.2010</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1993</c:v>
+                  <c:v>11.2010</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1994</c:v>
+                  <c:v>12.2010</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1995</c:v>
+                  <c:v>01.2011</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1996</c:v>
+                  <c:v>02.2011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1997</c:v>
+                  <c:v>03.2011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1998</c:v>
+                  <c:v>04.2011</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1999</c:v>
+                  <c:v>05.2011</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>06.2011</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2001</c:v>
+                  <c:v>07.2011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2002</c:v>
+                  <c:v>08.2011</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2003</c:v>
+                  <c:v>09.2011</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2009</c:v>
+                  <c:v>10.2011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$18</c:f>
+              <c:f>Sheet1!$B$1:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>147</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>465</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>498</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>161</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>557</c:v>
+                  <c:v>538</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>712</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>730</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>773</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>286</c:v>
+                  <c:v>543</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>463</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>509</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>504</c:v>
+                  <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>629</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>642</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>718</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -215,7 +229,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="650" baseline="0"/>
+              <a:defRPr sz="650" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -268,10 +284,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -578,154 +594,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1">
-        <v>1992</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>147</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1993</v>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>465</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1994</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>498</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1995</v>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>161</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1996</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>557</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1997</v>
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>712</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1998</v>
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>730</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8">
-        <v>1999</v>
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>773</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9">
-        <v>2000</v>
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>286</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10">
-        <v>2001</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>463</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11">
-        <v>2002</v>
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>509</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12">
-        <v>2003</v>
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>504</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13">
-        <v>2004</v>
+      <c r="A13" t="s">
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>2005</v>
-      </c>
-      <c r="B14">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>2006</v>
-      </c>
-      <c r="B15">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>2007</v>
-      </c>
-      <c r="B16">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>2008</v>
-      </c>
-      <c r="B17">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>2009</v>
-      </c>
-      <c r="B18">
-        <v>718</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
